--- a/Evaluation/eval002/sub0255/Classifcation Report.xlsx
+++ b/Evaluation/eval002/sub0255/Classifcation Report.xlsx
@@ -400,13 +400,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0.9901960784313726</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.9900990099009901</v>
-      </c>
       <c r="D2" t="n">
-        <v>0.9950248756218906</v>
+        <v>0.9950738916256158</v>
       </c>
       <c r="E2" t="n">
         <v>101</v>
@@ -419,13 +419,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9901960784313726</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9900990099009901</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9950738916256158</v>
+        <v>0.9950248756218906</v>
       </c>
       <c r="E3" t="n">
         <v>101</v>
